--- a/agents/Othello/csv/multiTrain-lambda.xlsx
+++ b/agents/Othello/csv/multiTrain-lambda.xlsx
@@ -13,13 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="multiTrain-lambda" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="horizonCut">Tabelle1!$D$5</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:0.9, horizon:44, AFTERSTATE:false, learnFromRM: false</t>
   </si>
@@ -53,13 +57,19 @@
   <si>
     <t>lambda</t>
   </si>
+  <si>
+    <t>horizonCut</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -540,7 +550,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,7 +875,7 @@
   <dimension ref="A1:I1253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I1253"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38412,4 +38422,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1E-4</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(LN(horizonCut)/LN(C8)+0.5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <f>ROUND(LN(horizonCut)/LN(C9)+0.5,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(LN(horizonCut)/LN(C10)+0.5,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(LN(horizonCut)/LN(C11)+0.5,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.4</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(LN(horizonCut)/LN(C12)+0.5,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>ROUND(LN(horizonCut)/LN(C13)+0.5,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <f>ROUND(LN(horizonCut)/LN(C14)+0.5,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <f>ROUND(LN(horizonCut)/LN(C15)+0.5,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(LN(horizonCut)/LN(C16)+0.5,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.9</v>
+      </c>
+      <c r="D17">
+        <f>ROUND(LN(horizonCut)/LN(C17)+0.5,0)</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/agents/Othello/csv/multiTrain-lambda.xlsx
+++ b/agents/Othello/csv/multiTrain-lambda.xlsx
@@ -18,15 +18,12 @@
   <definedNames>
     <definedName name="horizonCut">Tabelle1!$D$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:0.9, horizon:44, AFTERSTATE:false, learnFromRM: false</t>
-  </si>
   <si>
     <t>TDNTuple3Agt: alpha_init-&gt;final:0.2-&gt;0.2, epsilon_init-&gt;final:0.2-&gt;0.2, gamma: 1.0, random 50 6-tuple</t>
   </si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>horizon</t>
+  </si>
+  <si>
+    <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:var, horizon:44, AFTERSTATE:false, learnFromRM: false</t>
   </si>
 </sst>
 </file>
@@ -872,51 +872,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1253"/>
+  <dimension ref="A1:K1253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0</v>
       </c>
@@ -4667,6 +4667,10 @@
       <c r="I128" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="K128">
+        <f>G128/60</f>
+        <v>43.675500000000007</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -38436,7 +38440,7 @@
   <sheetData>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.01</v>
@@ -38444,10 +38448,10 @@
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
@@ -38455,7 +38459,7 @@
         <v>1E-4</v>
       </c>
       <c r="D8">
-        <f>ROUND(LN(horizonCut)/LN(C8)+0.5,0)</f>
+        <f t="shared" ref="D8:D17" si="0">ROUND(LN(horizonCut)/LN(C8)+0.5,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -38464,7 +38468,7 @@
         <v>0.1</v>
       </c>
       <c r="D9">
-        <f>ROUND(LN(horizonCut)/LN(C9)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -38473,7 +38477,7 @@
         <v>0.2</v>
       </c>
       <c r="D10">
-        <f>ROUND(LN(horizonCut)/LN(C10)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -38482,7 +38486,7 @@
         <v>0.3</v>
       </c>
       <c r="D11">
-        <f>ROUND(LN(horizonCut)/LN(C11)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -38491,7 +38495,7 @@
         <v>0.4</v>
       </c>
       <c r="D12">
-        <f>ROUND(LN(horizonCut)/LN(C12)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -38500,7 +38504,7 @@
         <v>0.5</v>
       </c>
       <c r="D13">
-        <f>ROUND(LN(horizonCut)/LN(C13)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -38509,7 +38513,7 @@
         <v>0.6</v>
       </c>
       <c r="D14">
-        <f>ROUND(LN(horizonCut)/LN(C14)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -38518,7 +38522,7 @@
         <v>0.7</v>
       </c>
       <c r="D15">
-        <f>ROUND(LN(horizonCut)/LN(C15)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -38527,7 +38531,7 @@
         <v>0.8</v>
       </c>
       <c r="D16">
-        <f>ROUND(LN(horizonCut)/LN(C16)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -38536,7 +38540,7 @@
         <v>0.9</v>
       </c>
       <c r="D17">
-        <f>ROUND(LN(horizonCut)/LN(C17)+0.5,0)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
